--- a/biology/Médecine/Willem_de_Vos/Willem_de_Vos.xlsx
+++ b/biology/Médecine/Willem_de_Vos/Willem_de_Vos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Willem M. de Vos, né le 30 octobre 1954 à Apeldoorn (Pays-Bas), est un microbiologiste néerlandais.
 </t>
@@ -511,10 +523,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a passé sa thèse de doctorat à l'université de Groningue.
-Depuis 2007, il étudie les bactéries de la flore intestinale humaine en particulier les souches bactériennes qui ont un impact positif sur la santé dans un but thérapeutique[1],[2].
+Depuis 2007, il étudie les bactéries de la flore intestinale humaine en particulier les souches bactériennes qui ont un impact positif sur la santé dans un but thérapeutique,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été lauréat du prix Spinoza en 2008.
 </t>
